--- a/data/AutomationPlan.xlsx
+++ b/data/AutomationPlan.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="1" r:id="rId1"/>
     <sheet name="LogInTest" sheetId="2" r:id="rId2"/>
     <sheet name="MyAccountTest" sheetId="3" r:id="rId3"/>
+    <sheet name="MyAddress" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Test case</t>
   </si>
@@ -93,15 +94,9 @@
     <t>Expected result</t>
   </si>
   <si>
-    <t>Sign in page is opened</t>
-  </si>
-  <si>
     <t>Enter email adress</t>
   </si>
   <si>
-    <t>marijana.solda+1@gmail.com</t>
-  </si>
-  <si>
     <t>Click on "Create an account"</t>
   </si>
   <si>
@@ -156,67 +151,64 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Email address ie entered</t>
-  </si>
-  <si>
-    <t>"Create an account page" is opened</t>
-  </si>
-  <si>
     <t>Click on "Mrs" box</t>
   </si>
   <si>
-    <t>"Mrs" is selected</t>
-  </si>
-  <si>
-    <t>First name is entered</t>
-  </si>
-  <si>
-    <t>Last name is enteres</t>
-  </si>
-  <si>
-    <t>Password is entered</t>
-  </si>
-  <si>
     <t>Choose date of Birth from drop down menu</t>
   </si>
   <si>
     <t>Choose month od Birth from drop down menu</t>
   </si>
   <si>
-    <t>Date is choosed</t>
-  </si>
-  <si>
-    <t>Month is choosed</t>
-  </si>
-  <si>
     <t>Chose year of Birth from drop down menu</t>
   </si>
   <si>
-    <t>Year is choosed</t>
-  </si>
-  <si>
-    <t>Adress is entered</t>
-  </si>
-  <si>
-    <t>City is entered</t>
-  </si>
-  <si>
-    <t>State is chosen</t>
-  </si>
-  <si>
-    <t>Zip/postal code is entered</t>
-  </si>
-  <si>
     <t>Enter mobile Phone number</t>
   </si>
   <si>
     <t>0601234567</t>
   </si>
   <si>
-    <t>Mobile phone number is entered</t>
-  </si>
-  <si>
     <t>Welcome to your account. Here you can manage all of your personal information and orders.</t>
+  </si>
+  <si>
+    <t>marijana.solda+3@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC3 </t>
+  </si>
+  <si>
+    <t>MyAddress</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>TC3:</t>
+  </si>
+  <si>
+    <t>Navigate to   http://automationpractice.com/index.php and log in with valid credentials</t>
+  </si>
+  <si>
+    <t>Zmaj Jovina 16</t>
+  </si>
+  <si>
+    <t>Click on button "save"</t>
+  </si>
+  <si>
+    <t>Your addresses are listed below.</t>
+  </si>
+  <si>
+    <t>Click on "my addresses" button</t>
+  </si>
+  <si>
+    <t>Click on "update" button</t>
+  </si>
+  <si>
+    <t>From field "address" delete address</t>
+  </si>
+  <si>
+    <t>In "address" field enter new address</t>
   </si>
 </sst>
 </file>
@@ -250,7 +242,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +252,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +305,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -316,6 +326,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -614,7 +627,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -646,6 +659,9 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
@@ -656,7 +672,12 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
   </sheetData>
@@ -669,7 +690,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -694,16 +715,17 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -751,7 +773,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -765,10 +787,10 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -784,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -817,9 +839,7 @@
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
@@ -828,33 +848,25 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -862,10 +874,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -873,13 +882,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -887,13 +893,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -901,13 +904,10 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
         <v>21121983</v>
-      </c>
-      <c r="D12" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -915,13 +915,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C13" s="7">
         <v>21</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -929,13 +926,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -943,13 +937,10 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
         <v>1983</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -957,111 +948,90 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7">
         <v>21000</v>
       </c>
-      <c r="D21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1039,7 @@
         <v>21</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1079,4 +1049,114 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/AutomationPlan.xlsx
+++ b/data/AutomationPlan.xlsx
@@ -4,20 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Test plan" sheetId="1" r:id="rId1"/>
     <sheet name="LogInTest" sheetId="2" r:id="rId2"/>
     <sheet name="MyAccountTest" sheetId="3" r:id="rId3"/>
-    <sheet name="MyAddress" sheetId="4" r:id="rId4"/>
+    <sheet name="MyAddressUpdate" sheetId="4" r:id="rId4"/>
+    <sheet name="addAddress" sheetId="5" r:id="rId5"/>
+    <sheet name="RemoveAddress" sheetId="6" r:id="rId6"/>
+    <sheet name="MyPersonalInformation" sheetId="7" r:id="rId7"/>
+    <sheet name="AddWishList" sheetId="8" r:id="rId8"/>
+    <sheet name="AddMultipleWishList" sheetId="9" r:id="rId9"/>
+    <sheet name="DeleteWishList" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="118">
   <si>
     <t>Test case</t>
   </si>
@@ -40,9 +46,6 @@
     <t>TC2</t>
   </si>
   <si>
-    <t>My account test</t>
-  </si>
-  <si>
     <t>TC1:</t>
   </si>
   <si>
@@ -67,18 +70,12 @@
     <t>Click on "Sign in"</t>
   </si>
   <si>
-    <t>enter email adress</t>
-  </si>
-  <si>
     <t>marijana.solda@gmail.com</t>
   </si>
   <si>
     <t>msolda@gmail.com</t>
   </si>
   <si>
-    <t>enter password</t>
-  </si>
-  <si>
     <t>Expected result:</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>Enter zip/postal code</t>
   </si>
   <si>
-    <t>Click on register</t>
-  </si>
-  <si>
     <t>Authentication failed.</t>
   </si>
   <si>
@@ -178,44 +172,252 @@
     <t xml:space="preserve">TC3 </t>
   </si>
   <si>
-    <t>MyAddress</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
     <t>TC3:</t>
   </si>
   <si>
-    <t>Navigate to   http://automationpractice.com/index.php and log in with valid credentials</t>
-  </si>
-  <si>
     <t>Zmaj Jovina 16</t>
   </si>
   <si>
-    <t>Click on button "save"</t>
-  </si>
-  <si>
     <t>Your addresses are listed below.</t>
   </si>
   <si>
-    <t>Click on "my addresses" button</t>
-  </si>
-  <si>
-    <t>Click on "update" button</t>
-  </si>
-  <si>
-    <t>From field "address" delete address</t>
-  </si>
-  <si>
-    <t>In "address" field enter new address</t>
+    <t xml:space="preserve">Navigate to   http://automationpractice.com/index.php </t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Click on button "Save"</t>
+  </si>
+  <si>
+    <t>Enter new address in  field "Address"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete address from field "Address"</t>
+  </si>
+  <si>
+    <t>Click on "Update" button</t>
+  </si>
+  <si>
+    <t>Enter password in field "Password"</t>
+  </si>
+  <si>
+    <t>Enter email address in field "Email address"</t>
+  </si>
+  <si>
+    <t>Click on "Sign in" button</t>
+  </si>
+  <si>
+    <t>Click on "MY ADDRESSES" button</t>
+  </si>
+  <si>
+    <t>Click on "Add a new address" button</t>
+  </si>
+  <si>
+    <t>Enter Mobile phone number</t>
+  </si>
+  <si>
+    <r>
+      <t>Enter the field</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Please assign an address title for future reference</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on "Save" button</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Delete text from field "Please assign an address title for future reference"</t>
+  </si>
+  <si>
+    <t>Braće Dronjak 2</t>
+  </si>
+  <si>
+    <t>Enter email adress in field "Email address"</t>
+  </si>
+  <si>
+    <t>TC2:</t>
+  </si>
+  <si>
+    <t>Click on" Register" button</t>
+  </si>
+  <si>
+    <t>Create account on website Automation practice in section "my account"</t>
+  </si>
+  <si>
+    <t>Log in tests on website Automation practice</t>
+  </si>
+  <si>
+    <t>Update address in my addresses section on website Automation practice</t>
+  </si>
+  <si>
+    <t>TC4:</t>
+  </si>
+  <si>
+    <t>Add address in my addresses section on website Automation practice</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>TC5:</t>
+  </si>
+  <si>
+    <t>Remove address in my addresses section on website Automation practice</t>
+  </si>
+  <si>
+    <t>Click on "Delete" button</t>
+  </si>
+  <si>
+    <t>Click  on "ok" button</t>
+  </si>
+  <si>
+    <t>No addresses are available. Add a new address</t>
+  </si>
+  <si>
+    <t>TC6:</t>
+  </si>
+  <si>
+    <t>Click on "MY PERSONAL INFORMATION" button</t>
+  </si>
+  <si>
+    <t>Enter "Current Password"</t>
+  </si>
+  <si>
+    <t>Enter "New Password"</t>
+  </si>
+  <si>
+    <t>Enter "Confirmation"</t>
+  </si>
+  <si>
+    <t>Clik on "Save" button</t>
+  </si>
+  <si>
+    <t>Your personal information has been successfully updated.</t>
+  </si>
+  <si>
+    <t>marijana.solda+1@gmail.com</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>Change password in my personal information section on website Automation practice</t>
+  </si>
+  <si>
+    <t>Click on "MY WISHLIST" button</t>
+  </si>
+  <si>
+    <t>TC7:</t>
+  </si>
+  <si>
+    <t>TC8:</t>
+  </si>
+  <si>
+    <t>Enter appropiate name for wishlist in field "Name"</t>
+  </si>
+  <si>
+    <t>Marijana Vucijak</t>
+  </si>
+  <si>
+    <t>Added to your wishlist.</t>
+  </si>
+  <si>
+    <t>Click on product "Blouse"</t>
+  </si>
+  <si>
+    <t>Click on "Add to wishlist"</t>
+  </si>
+  <si>
+    <t>Click on x on "pop up" window</t>
+  </si>
+  <si>
+    <t>Moja lista</t>
+  </si>
+  <si>
+    <t>Add product to wish list</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Add product to wishlist</t>
+  </si>
+  <si>
+    <t>Add two multiple wishlist</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>Delete wish list</t>
+  </si>
+  <si>
+    <t>Add two multiple wish list</t>
+  </si>
+  <si>
+    <t>TC9:</t>
+  </si>
+  <si>
+    <t>Click on "x" button in column delete</t>
+  </si>
+  <si>
+    <t>Expested result</t>
+  </si>
+  <si>
+    <t>Empty wish list</t>
+  </si>
+  <si>
+    <t>Clikck "ok" on pop-up window</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +442,14 @@
       <color rgb="FF777777"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -305,11 +515,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -329,6 +536,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -624,31 +837,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="2" max="2" width="73.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.7265625" customWidth="1"/>
     <col min="4" max="4" width="25.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
     </row>
@@ -659,28 +872,206 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>54</v>
+      <c r="C2" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>21121983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
+        <v>116</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -690,7 +1081,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -703,30 +1094,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>13</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -734,7 +1128,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -742,13 +1136,13 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -756,7 +1150,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="C8">
         <v>21121983</v>
@@ -770,27 +1164,27 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -806,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -820,33 +1214,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="6" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -854,19 +1251,19 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="5"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -874,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -882,10 +1279,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -893,10 +1290,10 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -904,9 +1301,9 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="7">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6">
         <v>21121983</v>
       </c>
     </row>
@@ -915,9 +1312,9 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7">
+        <v>41</v>
+      </c>
+      <c r="C13" s="13">
         <v>21</v>
       </c>
     </row>
@@ -926,10 +1323,10 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -937,9 +1334,9 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="7">
+        <v>43</v>
+      </c>
+      <c r="C15" s="6">
         <v>1983</v>
       </c>
     </row>
@@ -948,13 +1345,13 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -962,10 +1359,10 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -973,10 +1370,10 @@
         <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -984,10 +1381,10 @@
         <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -995,10 +1392,10 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1006,9 +1403,9 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="7">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6">
         <v>21000</v>
       </c>
     </row>
@@ -1017,10 +1414,10 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1028,18 +1425,18 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>50</v>
+        <v>18</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1055,8 +1452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1068,24 +1465,27 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
-        <v>9</v>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1093,7 +1493,10 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1101,9 +1504,11 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>21121983</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
@@ -1120,43 +1525,767 @@
       <c r="B10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
         <v>5</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="7"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="C15" s="6"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>21121983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="C12" s="7"/>
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>24</v>
+      <c r="A13">
+        <v>7</v>
       </c>
       <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="6">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="6">
+        <v>601234567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>59</v>
+      <c r="B22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>21121983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="C14" s="7"/>
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="C15" s="7"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="C18" s="6"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2" display="http://automationpractice.com/index.php?controller=address"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>21121983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="3">
+        <v>21121983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12">
+        <v>21121981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13">
+        <v>21121981</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>21121983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>21121983</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" customHeight="1">
+      <c r="A13">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>